--- a/xforms/xlsforms/relationship.xlsx
+++ b/xforms/xlsforms/relationship.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25605" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>type</t>
   </si>
@@ -180,7 +180,19 @@
     <t>The start date can not be in the future</t>
   </si>
   <si>
-    <t>.=&lt; today()</t>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>processedByMirth</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>1=2</t>
+  </si>
+  <si>
+    <t>.&lt;= today()</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1574,13 +1586,30 @@
         <v>46</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="4" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1832,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/xforms/xlsforms/relationship.xlsx
+++ b/xforms/xlsforms/relationship.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="25605" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>type</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>processed</t>
-  </si>
-  <si>
-    <t>1=2</t>
   </si>
   <si>
     <t>.&lt;= today()</t>
@@ -1351,10 +1348,10 @@
   <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1586,7 +1583,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>53</v>
@@ -1608,8 +1605,8 @@
       <c r="D10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>57</v>
+      <c r="M10" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/relationship.xlsx
+++ b/xforms/xlsforms/relationship.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>type</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>.&lt;= today()</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>openhds</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>OpenHDS preloaded info</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
 </sst>
 </file>
@@ -248,12 +263,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -618,7 +639,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -657,6 +678,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1345,13 +1372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1483,47 +1510,42 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+    <row r="5" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="4" t="b">
         <v>1</v>
@@ -1533,104 +1555,123 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="4" t="b">
+      <c r="M8" s="4" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="4" t="b">
+      <c r="M12" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-    </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="3"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
@@ -1643,37 +1684,39 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1686,13 +1729,12 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1701,16 +1743,17 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1719,7 +1762,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1750,7 +1793,6 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -1760,7 +1802,6 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -1780,6 +1821,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
@@ -1791,20 +1833,33 @@
       <c r="G32" s="2"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="3"/>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="3"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="3"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="3"/>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I55" s="3"/>
@@ -1815,27 +1870,25 @@
     <row r="57" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I57" s="3"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -1843,10 +1896,18 @@
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
       <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+      <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I84" s="3"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xforms/xlsforms/relationship.xlsx
+++ b/xforms/xlsforms/relationship.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="25605" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>type</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>field-list</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>concat(${individualA},'_REL_',${fieldWorkerId})</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2375,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2388,7 +2394,7 @@
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2398,8 +2404,11 @@
       <c r="C1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -2408,6 +2417,9 @@
       </c>
       <c r="C2" t="s">
         <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
